--- a/uploads/excel/datatable.xlsx
+++ b/uploads/excel/datatable.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="630" windowWidth="20175" windowHeight="9615"/>
+    <workbookView xWindow="630" yWindow="690" windowWidth="20175" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="board" sheetId="3" r:id="rId1"/>
+    <sheet name="greenitems" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -32,13 +33,42 @@
   </si>
   <si>
     <t>FAQ</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>sdate</t>
+  </si>
+  <si>
+    <t>HOHO EMI'S 친환경 세제</t>
+  </si>
+  <si>
+    <t>Natural Promise
+설거지 할 때도 민감한 피부가 걱정된다면, 
+이젠 친환경 세제 HOHO EMI'S를 사용해보세요.</t>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>edate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -53,6 +83,12 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -75,9 +111,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -423,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -478,4 +519,74 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="104.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>950</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3">
+        <v>42491</v>
+      </c>
+      <c r="G2" s="3">
+        <v>42522.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/uploads/excel/datatable.xlsx
+++ b/uploads/excel/datatable.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="690" windowWidth="20175" windowHeight="9555" activeTab="1"/>
+    <workbookView xWindow="630" yWindow="690" windowWidth="20175" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="board" sheetId="3" r:id="rId1"/>
     <sheet name="greenitems" sheetId="4" r:id="rId2"/>
+    <sheet name="photos" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +62,54 @@
   </si>
   <si>
     <t>5.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uploaddate</t>
+  </si>
+  <si>
+    <t>originalfilename</t>
+  </si>
+  <si>
+    <t>refer_type</t>
+  </si>
+  <si>
+    <t>refer_id</t>
+  </si>
+  <si>
+    <t>2016. 3. 4 오전 11:31:55</t>
+  </si>
+  <si>
+    <t>2016. 3. 4 오전 11:40:56</t>
+  </si>
+  <si>
+    <t>2016. 3. 4 오전 11:41:01</t>
+  </si>
+  <si>
+    <t>2016. 3. 4 오전 11:41:02</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -77,6 +126,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -91,15 +141,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,11 +163,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -119,6 +190,15 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -525,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -589,4 +669,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/uploads/excel/datatable.xlsx
+++ b/uploads/excel/datatable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="690" windowWidth="20175" windowHeight="9555"/>
+    <workbookView xWindow="630" yWindow="690" windowWidth="20175" windowHeight="9555" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="board" sheetId="3" r:id="rId1"/>
@@ -4997,7 +4997,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -5089,7 +5089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -5102,23 +5102,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5482,7 +5479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -5543,59 +5540,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="13">
         <v>42461.5</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>5</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="13">
         <v>42461.5</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>5</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="13">
         <v>42462.5</v>
       </c>
       <c r="B4" s="5">
@@ -5604,12 +5599,12 @@
       <c r="C4" s="5">
         <v>5</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="13">
         <v>42462.5</v>
       </c>
       <c r="B5" s="5">
@@ -5618,12 +5613,12 @@
       <c r="C5" s="5">
         <v>10</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="13">
         <v>42463.5</v>
       </c>
       <c r="B6" s="5">
@@ -5632,12 +5627,12 @@
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="13">
         <v>42464.5</v>
       </c>
       <c r="B7" s="5">
@@ -5646,12 +5641,12 @@
       <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="13">
         <v>42465.5</v>
       </c>
       <c r="B8" s="5">
@@ -5660,12 +5655,12 @@
       <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="13">
         <v>42467.5</v>
       </c>
       <c r="B9" s="5">
@@ -5674,12 +5669,12 @@
       <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="13">
         <v>42468.5</v>
       </c>
       <c r="B10" s="5">
@@ -5688,12 +5683,12 @@
       <c r="C10" s="5">
         <v>10</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="13">
         <v>42469.5</v>
       </c>
       <c r="B11" s="5">
@@ -5702,13 +5697,14 @@
       <c r="C11" s="5">
         <v>5</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5717,27 +5713,28 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>165</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>410</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -5754,13 +5751,13 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>4</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="13">
         <v>42461.5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>429</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -5779,14 +5776,14 @@
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+    <row r="3" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="13">
         <v>42461.5</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>433</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -5809,7 +5806,7 @@
       <c r="A4" s="5">
         <v>6</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="13">
         <v>42462.5</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -5852,35 +5849,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
     </row>
@@ -5891,7 +5888,7 @@
       <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>5</v>
       </c>
     </row>
@@ -5902,7 +5899,7 @@
       <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>7</v>
       </c>
     </row>
@@ -5913,7 +5910,7 @@
       <c r="B6" s="5">
         <v>1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>10</v>
       </c>
     </row>
@@ -5939,212 +5936,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>583</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>585</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>588</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="306.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:4" ht="128.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="243" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>593</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>594</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="153.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+    <row r="8" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>596</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="141" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="345" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+    <row r="10" spans="1:4" ht="102.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>601</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="357.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>604</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>605</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="18">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="409.6" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+    <row r="15" spans="1:4" ht="166.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>42426.514293981483</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>1</v>
       </c>
     </row>
@@ -6168,13 +6165,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>471</v>
       </c>
       <c r="D1" s="9" t="s">
@@ -6185,13 +6182,13 @@
       <c r="A2" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>42461.5</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6199,13 +6196,13 @@
       <c r="A3" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>42461.5</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>1</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>1</v>
       </c>
     </row>
@@ -6213,7 +6210,7 @@
       <c r="A4" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>42462.5</v>
       </c>
       <c r="C4" s="5">
@@ -6227,7 +6224,7 @@
       <c r="A5" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>42462.5</v>
       </c>
       <c r="C5" s="5">
@@ -6241,7 +6238,7 @@
       <c r="A6" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <v>42463.5</v>
       </c>
       <c r="C6" s="5">
@@ -6255,7 +6252,7 @@
       <c r="A7" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>42464.5</v>
       </c>
       <c r="C7" s="5">
@@ -6269,7 +6266,7 @@
       <c r="A8" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>42465.5</v>
       </c>
       <c r="C8" s="5">
@@ -6283,7 +6280,7 @@
       <c r="A9" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>42467.5</v>
       </c>
       <c r="C9" s="5">
@@ -6297,7 +6294,7 @@
       <c r="A10" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <v>42468.5</v>
       </c>
       <c r="C10" s="5">
@@ -6311,7 +6308,7 @@
       <c r="A11" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <v>42469.5</v>
       </c>
       <c r="C11" s="5">
@@ -6325,7 +6322,7 @@
       <c r="A12" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <v>42470.5</v>
       </c>
       <c r="C12" s="5">
@@ -6339,7 +6336,7 @@
       <c r="A13" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>42471.5</v>
       </c>
       <c r="C13" s="5">
@@ -6353,7 +6350,7 @@
       <c r="A14" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <v>42472.5</v>
       </c>
       <c r="C14" s="5">
@@ -6367,7 +6364,7 @@
       <c r="A15" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>42473.5</v>
       </c>
       <c r="C15" s="5">
@@ -6381,7 +6378,7 @@
       <c r="A16" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>42474.5</v>
       </c>
       <c r="C16" s="5">
@@ -6395,7 +6392,7 @@
       <c r="A17" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>42475.5</v>
       </c>
       <c r="C17" s="5">
@@ -6409,7 +6406,7 @@
       <c r="A18" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B18" s="14">
+      <c r="B18" s="13">
         <v>42476.5</v>
       </c>
       <c r="C18" s="5">
@@ -6423,7 +6420,7 @@
       <c r="A19" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="13">
         <v>42477.5</v>
       </c>
       <c r="C19" s="5">
@@ -6437,7 +6434,7 @@
       <c r="A20" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="13">
         <v>42478.5</v>
       </c>
       <c r="C20" s="5">
@@ -6451,7 +6448,7 @@
       <c r="A21" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B21" s="14">
+      <c r="B21" s="13">
         <v>42479.5</v>
       </c>
       <c r="C21" s="5">
@@ -6465,7 +6462,7 @@
       <c r="A22" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <v>42480.5</v>
       </c>
       <c r="C22" s="5">
@@ -6479,7 +6476,7 @@
       <c r="A23" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B23" s="13">
         <v>42481.5</v>
       </c>
       <c r="C23" s="5">
@@ -6493,7 +6490,7 @@
       <c r="A24" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="13">
         <v>42482.5</v>
       </c>
       <c r="C24" s="5">
@@ -6507,7 +6504,7 @@
       <c r="A25" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B25" s="13">
         <v>42483.5</v>
       </c>
       <c r="C25" s="5">
@@ -6521,7 +6518,7 @@
       <c r="A26" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B26" s="14">
+      <c r="B26" s="13">
         <v>42484.5</v>
       </c>
       <c r="C26" s="5">
@@ -6535,7 +6532,7 @@
       <c r="A27" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="13">
         <v>42485.5</v>
       </c>
       <c r="C27" s="5">
@@ -6549,7 +6546,7 @@
       <c r="A28" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B28" s="14">
+      <c r="B28" s="13">
         <v>42486.5</v>
       </c>
       <c r="C28" s="5">
@@ -6563,7 +6560,7 @@
       <c r="A29" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <v>42487.5</v>
       </c>
       <c r="C29" s="5">
@@ -6577,7 +6574,7 @@
       <c r="A30" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B30" s="14">
+      <c r="B30" s="13">
         <v>42488.5</v>
       </c>
       <c r="C30" s="5">
@@ -6591,7 +6588,7 @@
       <c r="A31" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>42489.5</v>
       </c>
       <c r="C31" s="5">
@@ -6605,7 +6602,7 @@
       <c r="A32" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>42490.5</v>
       </c>
       <c r="C32" s="5">
@@ -6619,7 +6616,7 @@
       <c r="A33" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>42491.5</v>
       </c>
       <c r="C33" s="5">
@@ -6633,7 +6630,7 @@
       <c r="A34" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="13">
         <v>42492.5</v>
       </c>
       <c r="C34" s="5">
@@ -6647,7 +6644,7 @@
       <c r="A35" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="13">
         <v>42493.5</v>
       </c>
       <c r="C35" s="5">
@@ -6661,7 +6658,7 @@
       <c r="A36" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="13">
         <v>42494.5</v>
       </c>
       <c r="C36" s="5">
@@ -6675,7 +6672,7 @@
       <c r="A37" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="13">
         <v>42495.5</v>
       </c>
       <c r="C37" s="5">
@@ -6689,7 +6686,7 @@
       <c r="A38" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="13">
         <v>42496.5</v>
       </c>
       <c r="C38" s="5">
@@ -6703,7 +6700,7 @@
       <c r="A39" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B39" s="14">
+      <c r="B39" s="13">
         <v>42497.5</v>
       </c>
       <c r="C39" s="5">
@@ -6717,7 +6714,7 @@
       <c r="A40" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <v>42498.5</v>
       </c>
       <c r="C40" s="5">
@@ -6731,7 +6728,7 @@
       <c r="A41" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B41" s="14">
+      <c r="B41" s="13">
         <v>42499.5</v>
       </c>
       <c r="C41" s="5">
@@ -6745,7 +6742,7 @@
       <c r="A42" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B42" s="14">
+      <c r="B42" s="13">
         <v>42500.5</v>
       </c>
       <c r="C42" s="5">
@@ -6759,7 +6756,7 @@
       <c r="A43" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="B43" s="14">
+      <c r="B43" s="13">
         <v>42501.5</v>
       </c>
       <c r="C43" s="5">
@@ -6773,7 +6770,7 @@
       <c r="A44" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B44" s="14">
+      <c r="B44" s="13">
         <v>42502.5</v>
       </c>
       <c r="C44" s="5">
@@ -6787,7 +6784,7 @@
       <c r="A45" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="B45" s="14">
+      <c r="B45" s="13">
         <v>42503.5</v>
       </c>
       <c r="C45" s="5">
@@ -6801,7 +6798,7 @@
       <c r="A46" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B46" s="14">
+      <c r="B46" s="13">
         <v>42504.5</v>
       </c>
       <c r="C46" s="5">
@@ -6815,7 +6812,7 @@
       <c r="A47" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="B47" s="14">
+      <c r="B47" s="13">
         <v>42505.5</v>
       </c>
       <c r="C47" s="5">
@@ -6829,7 +6826,7 @@
       <c r="A48" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>42506.5</v>
       </c>
       <c r="C48" s="5">
@@ -6843,7 +6840,7 @@
       <c r="A49" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B49" s="13">
         <v>42507.5</v>
       </c>
       <c r="C49" s="5">
@@ -6857,7 +6854,7 @@
       <c r="A50" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>42508.5</v>
       </c>
       <c r="C50" s="5">
@@ -6871,7 +6868,7 @@
       <c r="A51" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>42509.5</v>
       </c>
       <c r="C51" s="5">
@@ -6885,7 +6882,7 @@
       <c r="A52" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>42510.5</v>
       </c>
       <c r="C52" s="5">
@@ -6899,7 +6896,7 @@
       <c r="A53" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <v>42511.5</v>
       </c>
       <c r="C53" s="5">
@@ -6913,7 +6910,7 @@
       <c r="A54" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <v>42512.5</v>
       </c>
       <c r="C54" s="5">
@@ -6927,7 +6924,7 @@
       <c r="A55" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>42513.5</v>
       </c>
       <c r="C55" s="5">
@@ -6941,7 +6938,7 @@
       <c r="A56" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>42514.5</v>
       </c>
       <c r="C56" s="5">
@@ -6955,7 +6952,7 @@
       <c r="A57" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>42515.5</v>
       </c>
       <c r="C57" s="5">
@@ -6969,7 +6966,7 @@
       <c r="A58" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>42516.5</v>
       </c>
       <c r="C58" s="5">
@@ -6983,7 +6980,7 @@
       <c r="A59" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>42517.5</v>
       </c>
       <c r="C59" s="5">
@@ -6997,7 +6994,7 @@
       <c r="A60" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>42518.5</v>
       </c>
       <c r="C60" s="5">
@@ -7011,7 +7008,7 @@
       <c r="A61" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>42519.5</v>
       </c>
       <c r="C61" s="5">
@@ -7025,7 +7022,7 @@
       <c r="A62" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <v>42520.5</v>
       </c>
       <c r="C62" s="5">
@@ -7039,7 +7036,7 @@
       <c r="A63" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <v>42521.5</v>
       </c>
       <c r="C63" s="5">
@@ -7053,7 +7050,7 @@
       <c r="A64" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <v>42522.5</v>
       </c>
       <c r="C64" s="5">
@@ -7067,7 +7064,7 @@
       <c r="A65" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>42523.5</v>
       </c>
       <c r="C65" s="5">
@@ -7081,7 +7078,7 @@
       <c r="A66" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <v>42524.5</v>
       </c>
       <c r="C66" s="5">
@@ -7095,7 +7092,7 @@
       <c r="A67" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>42525.5</v>
       </c>
       <c r="C67" s="5">
@@ -7109,7 +7106,7 @@
       <c r="A68" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="13">
         <v>42526.5</v>
       </c>
       <c r="C68" s="5">
@@ -7123,7 +7120,7 @@
       <c r="A69" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="13">
         <v>42527.5</v>
       </c>
       <c r="C69" s="5">
@@ -7137,7 +7134,7 @@
       <c r="A70" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="13">
         <v>42528.5</v>
       </c>
       <c r="C70" s="5">
@@ -7151,7 +7148,7 @@
       <c r="A71" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="13">
         <v>42529.5</v>
       </c>
       <c r="C71" s="5">
@@ -7165,7 +7162,7 @@
       <c r="A72" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="13">
         <v>42530.5</v>
       </c>
       <c r="C72" s="5">
@@ -7179,7 +7176,7 @@
       <c r="A73" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="13">
         <v>42531.5</v>
       </c>
       <c r="C73" s="5">
@@ -7193,7 +7190,7 @@
       <c r="A74" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="13">
         <v>42532.5</v>
       </c>
       <c r="C74" s="5">
@@ -7207,7 +7204,7 @@
       <c r="A75" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="13">
         <v>42533.5</v>
       </c>
       <c r="C75" s="5">
@@ -7221,7 +7218,7 @@
       <c r="A76" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <v>42534.5</v>
       </c>
       <c r="C76" s="5">
@@ -7235,7 +7232,7 @@
       <c r="A77" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="B77" s="14">
+      <c r="B77" s="13">
         <v>42535.5</v>
       </c>
       <c r="C77" s="5">
@@ -7249,7 +7246,7 @@
       <c r="A78" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78" s="13">
         <v>42536.5</v>
       </c>
       <c r="C78" s="5">
@@ -7263,7 +7260,7 @@
       <c r="A79" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="B79" s="14">
+      <c r="B79" s="13">
         <v>42537.5</v>
       </c>
       <c r="C79" s="5">
@@ -7277,7 +7274,7 @@
       <c r="A80" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B80" s="14">
+      <c r="B80" s="13">
         <v>42538.5</v>
       </c>
       <c r="C80" s="5">
@@ -7291,7 +7288,7 @@
       <c r="A81" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="B81" s="14">
+      <c r="B81" s="13">
         <v>42539.5</v>
       </c>
       <c r="C81" s="5">
@@ -7305,7 +7302,7 @@
       <c r="A82" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B82" s="14">
+      <c r="B82" s="13">
         <v>42540.5</v>
       </c>
       <c r="C82" s="5">
@@ -7319,7 +7316,7 @@
       <c r="A83" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="B83" s="14">
+      <c r="B83" s="13">
         <v>42541.5</v>
       </c>
       <c r="C83" s="5">
@@ -7333,7 +7330,7 @@
       <c r="A84" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="13">
         <v>42542.5</v>
       </c>
       <c r="C84" s="5">
@@ -7347,7 +7344,7 @@
       <c r="A85" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="13">
         <v>42543.5</v>
       </c>
       <c r="C85" s="5">
@@ -7361,7 +7358,7 @@
       <c r="A86" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>42544.5</v>
       </c>
       <c r="C86" s="5">
@@ -7375,7 +7372,7 @@
       <c r="A87" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="B87" s="14">
+      <c r="B87" s="13">
         <v>42545.5</v>
       </c>
       <c r="C87" s="5">
@@ -7389,7 +7386,7 @@
       <c r="A88" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="13">
         <v>42546.5</v>
       </c>
       <c r="C88" s="5">
@@ -7403,7 +7400,7 @@
       <c r="A89" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B89" s="13">
         <v>42547.5</v>
       </c>
       <c r="C89" s="5">
@@ -7417,7 +7414,7 @@
       <c r="A90" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="13">
         <v>42548.5</v>
       </c>
       <c r="C90" s="5">
@@ -7431,7 +7428,7 @@
       <c r="A91" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="B91" s="14">
+      <c r="B91" s="13">
         <v>42549.5</v>
       </c>
       <c r="C91" s="5">
@@ -7445,7 +7442,7 @@
       <c r="A92" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B92" s="14">
+      <c r="B92" s="13">
         <v>42550.5</v>
       </c>
       <c r="C92" s="5">
@@ -7459,7 +7456,7 @@
       <c r="A93" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B93" s="14">
+      <c r="B93" s="13">
         <v>42551.5</v>
       </c>
       <c r="C93" s="5">
@@ -7473,7 +7470,7 @@
       <c r="A94" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B94" s="14">
+      <c r="B94" s="13">
         <v>42552.5</v>
       </c>
       <c r="C94" s="5">
@@ -7487,7 +7484,7 @@
       <c r="A95" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="B95" s="14">
+      <c r="B95" s="13">
         <v>42553.5</v>
       </c>
       <c r="C95" s="5">
@@ -7501,7 +7498,7 @@
       <c r="A96" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B96" s="14">
+      <c r="B96" s="13">
         <v>42554.5</v>
       </c>
       <c r="C96" s="5">
@@ -7515,7 +7512,7 @@
       <c r="A97" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="B97" s="14">
+      <c r="B97" s="13">
         <v>42555.5</v>
       </c>
       <c r="C97" s="5">
@@ -7529,7 +7526,7 @@
       <c r="A98" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B98" s="14">
+      <c r="B98" s="13">
         <v>42556.5</v>
       </c>
       <c r="C98" s="5">
@@ -7543,7 +7540,7 @@
       <c r="A99" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="B99" s="14">
+      <c r="B99" s="13">
         <v>42557.5</v>
       </c>
       <c r="C99" s="5">
@@ -7557,7 +7554,7 @@
       <c r="A100" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B100" s="14">
+      <c r="B100" s="13">
         <v>42558.5</v>
       </c>
       <c r="C100" s="5">
@@ -7571,7 +7568,7 @@
       <c r="A101" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="B101" s="14">
+      <c r="B101" s="13">
         <v>42559.5</v>
       </c>
       <c r="C101" s="5">
@@ -7585,7 +7582,7 @@
       <c r="A102" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="B102" s="14">
+      <c r="B102" s="13">
         <v>42560.5</v>
       </c>
       <c r="C102" s="5">
@@ -7599,7 +7596,7 @@
       <c r="A103" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="B103" s="14">
+      <c r="B103" s="13">
         <v>42561.5</v>
       </c>
       <c r="C103" s="5">
@@ -7613,7 +7610,7 @@
       <c r="A104" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="B104" s="14">
+      <c r="B104" s="13">
         <v>42562.5</v>
       </c>
       <c r="C104" s="5">
@@ -7627,7 +7624,7 @@
       <c r="A105" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B105" s="14">
+      <c r="B105" s="13">
         <v>42563.5</v>
       </c>
       <c r="C105" s="5">
@@ -7641,7 +7638,7 @@
       <c r="A106" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="B106" s="14">
+      <c r="B106" s="13">
         <v>42564.5</v>
       </c>
       <c r="C106" s="5">
@@ -7655,7 +7652,7 @@
       <c r="A107" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B107" s="14">
+      <c r="B107" s="13">
         <v>42565.5</v>
       </c>
       <c r="C107" s="5">
@@ -7669,7 +7666,7 @@
       <c r="A108" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="B108" s="14">
+      <c r="B108" s="13">
         <v>42566.5</v>
       </c>
       <c r="C108" s="5">
@@ -7683,7 +7680,7 @@
       <c r="A109" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B109" s="14">
+      <c r="B109" s="13">
         <v>42567.5</v>
       </c>
       <c r="C109" s="5">
@@ -7697,7 +7694,7 @@
       <c r="A110" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="B110" s="14">
+      <c r="B110" s="13">
         <v>42568.5</v>
       </c>
       <c r="C110" s="5">
@@ -7711,7 +7708,7 @@
       <c r="A111" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B111" s="14">
+      <c r="B111" s="13">
         <v>42569.5</v>
       </c>
       <c r="C111" s="5">
@@ -7731,7 +7728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -7744,19 +7741,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>411</v>
       </c>
       <c r="F1" s="4" t="s">
@@ -7767,10 +7764,10 @@
       <c r="A2" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>1234</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>414</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -7783,14 +7780,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>417</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>419</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -7803,14 +7800,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>424</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -7827,10 +7824,10 @@
       <c r="A5" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>429</v>
       </c>
       <c r="D5" s="9" t="s">
@@ -7847,10 +7844,10 @@
       <c r="A6" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>5678</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>433</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -7867,10 +7864,10 @@
       <c r="A7" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>9876</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>437</v>
       </c>
       <c r="D7" s="9" t="s">
@@ -7887,10 +7884,10 @@
       <c r="A8" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>441</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>442</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -7903,14 +7900,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>446</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -7945,22 +7942,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>222</v>
       </c>
     </row>
@@ -7971,16 +7968,16 @@
       <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>950</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>42491</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>42522.5</v>
       </c>
     </row>
@@ -7994,13 +7991,13 @@
       <c r="C3" s="5">
         <v>2000</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>42492</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>42523.5</v>
       </c>
     </row>
@@ -8014,13 +8011,13 @@
       <c r="C4" s="5">
         <v>1000</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>42493</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>42524.5</v>
       </c>
     </row>
@@ -8034,13 +8031,13 @@
       <c r="C5" s="5">
         <v>550</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>42494</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>42525.5</v>
       </c>
     </row>
@@ -8054,13 +8051,13 @@
       <c r="C6" s="5">
         <v>200</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>42495</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>42526.5</v>
       </c>
     </row>
@@ -8074,13 +8071,13 @@
       <c r="C7" s="5">
         <v>800</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>42496</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>42527.5</v>
       </c>
     </row>
@@ -8094,13 +8091,13 @@
       <c r="C8" s="5">
         <v>5000</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>42497</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>42528.5</v>
       </c>
     </row>
@@ -8114,13 +8111,13 @@
       <c r="C9" s="5">
         <v>660</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>42498</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>42529.5</v>
       </c>
     </row>
@@ -8134,13 +8131,13 @@
       <c r="C10" s="5">
         <v>1000</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>42499</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>42530.5</v>
       </c>
     </row>
@@ -8154,13 +8151,13 @@
       <c r="C11" s="5">
         <v>450</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>42500</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="13">
         <v>42531.5</v>
       </c>
     </row>
@@ -8174,13 +8171,13 @@
       <c r="C12" s="5">
         <v>1100</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>42501</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>42532.5</v>
       </c>
     </row>
@@ -8194,13 +8191,13 @@
       <c r="C13" s="5">
         <v>1360</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>42502</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>42533.5</v>
       </c>
     </row>
@@ -8212,13 +8209,13 @@
       <c r="C14" s="5">
         <v>1600</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>42503</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>42534.5</v>
       </c>
     </row>
@@ -8232,13 +8229,13 @@
       <c r="C15" s="5">
         <v>3800</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>42504</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>42535.5</v>
       </c>
     </row>
@@ -8252,13 +8249,13 @@
       <c r="C16" s="5">
         <v>2300</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>42505</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>42536.5</v>
       </c>
     </row>
@@ -8272,13 +8269,13 @@
       <c r="C17" s="5">
         <v>200</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>401</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>42506</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>42537.5</v>
       </c>
     </row>
@@ -8292,13 +8289,13 @@
       <c r="C18" s="5">
         <v>600</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>402</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>42507</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="13">
         <v>42538.5</v>
       </c>
     </row>
@@ -8312,13 +8309,13 @@
       <c r="C19" s="5">
         <v>2000</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>42508</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>42539.5</v>
       </c>
     </row>
@@ -8332,13 +8329,13 @@
       <c r="C20" s="5">
         <v>700</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>42509</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>42540.5</v>
       </c>
     </row>
@@ -8352,13 +8349,13 @@
       <c r="C21" s="5">
         <v>600</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>42510</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>42541.5</v>
       </c>
     </row>
@@ -9261,25 +9258,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9290,16 +9287,16 @@
       <c r="B2" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>42460</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>42470</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -9313,16 +9310,16 @@
       <c r="B3" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>42461</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>42471</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -9336,16 +9333,16 @@
       <c r="B4" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>42462</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>42472</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -9359,16 +9356,16 @@
       <c r="B5" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>42463</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>42473</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -9382,16 +9379,16 @@
       <c r="B6" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>42464</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>42474</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -9405,16 +9402,16 @@
       <c r="B7" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>42465</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>42475</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -9428,16 +9425,16 @@
       <c r="B8" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>42466</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>42476</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -9451,16 +9448,16 @@
       <c r="B9" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>42467</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>42477</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -9474,16 +9471,16 @@
       <c r="B10" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>42468</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>42478</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -9497,16 +9494,16 @@
       <c r="B11" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>42469</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>42479</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>1</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -9520,16 +9517,16 @@
       <c r="B12" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>42470</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>42480</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -9543,16 +9540,16 @@
       <c r="B13" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>42471</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>42481</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -9566,16 +9563,16 @@
       <c r="B14" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>42472</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>42482</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>1</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -9589,16 +9586,16 @@
       <c r="B15" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>42473</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>42483</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -9612,16 +9609,16 @@
       <c r="B16" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>42474</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>42484</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -9635,16 +9632,16 @@
       <c r="B17" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>42475</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>42485</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -9658,16 +9655,16 @@
       <c r="B18" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>42476</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>42486</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -9681,16 +9678,16 @@
       <c r="B19" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>42477</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>42487</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -9704,16 +9701,16 @@
       <c r="B20" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <v>42478</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>42488</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -9727,16 +9724,16 @@
       <c r="B21" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <v>42479</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>42489</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>1</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -9767,24 +9764,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
@@ -9793,13 +9790,13 @@
       <c r="C2" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>42461.5</v>
       </c>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -9808,13 +9805,13 @@
       <c r="C3" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>42461.5</v>
       </c>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -9823,15 +9820,15 @@
       <c r="C4" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>42462.5</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -9840,15 +9837,15 @@
       <c r="C5" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>42463.5</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -9857,15 +9854,15 @@
       <c r="C6" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>42464.5</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -9874,15 +9871,15 @@
       <c r="C7" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>42465.5</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -9891,15 +9888,15 @@
       <c r="C8" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>42466.5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -9908,15 +9905,15 @@
       <c r="C9" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>42467.5</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -9925,15 +9922,15 @@
       <c r="C10" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="13">
         <v>42468.5</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -9942,15 +9939,15 @@
       <c r="C11" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="13">
         <v>42469.5</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -9959,15 +9956,15 @@
       <c r="C12" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>42470.5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>6</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -9976,15 +9973,15 @@
       <c r="C13" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>42471.5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -9993,15 +9990,15 @@
       <c r="C14" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="13">
         <v>42472.5</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>4</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -10010,15 +10007,15 @@
       <c r="C15" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>42473.5</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -10027,15 +10024,15 @@
       <c r="C16" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>42474.5</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>4</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -10044,15 +10041,15 @@
       <c r="C17" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>42475.5</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>5</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -10061,15 +10058,15 @@
       <c r="C18" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>42476.5</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -10078,15 +10075,15 @@
       <c r="C19" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="13">
         <v>42477.5</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -10095,15 +10092,15 @@
       <c r="C20" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="13">
         <v>42478.5</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>5</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -10112,15 +10109,15 @@
       <c r="C21" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D21" s="13">
         <v>42479.5</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>4</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -10129,15 +10126,15 @@
       <c r="C22" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="13">
         <v>42480.5</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>6</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -10146,15 +10143,15 @@
       <c r="C23" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>42481.5</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -10163,15 +10160,15 @@
       <c r="C24" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="13">
         <v>42482.5</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="10">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -10180,15 +10177,15 @@
       <c r="C25" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="13">
         <v>42483.5</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="10">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>4</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -10197,15 +10194,15 @@
       <c r="C26" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="13">
         <v>42484.5</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>5</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -10214,15 +10211,15 @@
       <c r="C27" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="13">
         <v>42485.5</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="10">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>4</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -10231,15 +10228,15 @@
       <c r="C28" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="13">
         <v>42486.5</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="10">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>5</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -10248,15 +10245,15 @@
       <c r="C29" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="13">
         <v>42487.5</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="10">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>5</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -10265,15 +10262,15 @@
       <c r="C30" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="13">
         <v>42488.5</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="10">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>5</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -10282,15 +10279,15 @@
       <c r="C31" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>42489.5</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="10">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>5</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -10299,15 +10296,15 @@
       <c r="C32" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>42490.5</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="10">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>4</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -10316,15 +10313,15 @@
       <c r="C33" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>42491.5</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="10">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -10333,15 +10330,15 @@
       <c r="C34" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="D34" s="14">
+      <c r="D34" s="13">
         <v>42492.5</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="10">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>8</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -10350,15 +10347,15 @@
       <c r="C35" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D35" s="13">
         <v>42493.5</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>8</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -10367,15 +10364,15 @@
       <c r="C36" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D36" s="14">
+      <c r="D36" s="13">
         <v>42494.5</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="10">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>7</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -10384,15 +10381,15 @@
       <c r="C37" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="13">
         <v>42495.5</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="10">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>7</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -10401,15 +10398,15 @@
       <c r="C38" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="D38" s="14">
+      <c r="D38" s="13">
         <v>42496.5</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="10">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>4</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -10418,15 +10415,15 @@
       <c r="C39" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="13">
         <v>42497.5</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="10">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>4</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -10435,15 +10432,15 @@
       <c r="C40" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="D40" s="14">
+      <c r="D40" s="13">
         <v>42498.5</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="10">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -10452,15 +10449,15 @@
       <c r="C41" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>42499.5</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="10">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>8</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -10469,15 +10466,15 @@
       <c r="C42" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="13">
         <v>42500.5</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="10">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>7</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -10486,15 +10483,15 @@
       <c r="C43" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D43" s="13">
         <v>42501.5</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="10">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>4</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -10503,15 +10500,15 @@
       <c r="C44" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>42502.5</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="10">
         <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>4</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -10520,15 +10517,15 @@
       <c r="C45" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>42503.5</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="10">
         <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>5</v>
       </c>
       <c r="B46" s="3" t="s">
@@ -10537,15 +10534,15 @@
       <c r="C46" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="D46" s="14">
+      <c r="D46" s="13">
         <v>42504.5</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="10">
         <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>5</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -10554,15 +10551,15 @@
       <c r="C47" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D47" s="13">
         <v>42505.5</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="10">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>8</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -10571,15 +10568,15 @@
       <c r="C48" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D48" s="14">
+      <c r="D48" s="13">
         <v>42506.5</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="10">
         <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>7</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -10588,15 +10585,15 @@
       <c r="C49" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D49" s="13">
         <v>42507.5</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="10">
         <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>8</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -10605,15 +10602,15 @@
       <c r="C50" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="D50" s="14">
+      <c r="D50" s="13">
         <v>42508.5</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="10">
         <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
@@ -10622,10 +10619,10 @@
       <c r="C51" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D51" s="13">
         <v>42509.5</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="10">
         <v>48</v>
       </c>
     </row>
@@ -10652,33 +10649,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>452</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>429</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -10697,11 +10694,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>433</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -10720,11 +10717,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>437</v>
       </c>
       <c r="C4" s="9" t="s">
